--- a/output/robot_cari_printerserver_all_printers.xlsx
+++ b/output/robot_cari_printerserver_all_printers.xlsx
@@ -12898,7 +12898,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -15642,7 +15642,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16093,7 +16093,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -17020,7 +17020,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -17506,7 +17506,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -17587,7 +17587,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -17962,7 +17962,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -18286,7 +18286,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -18772,7 +18772,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -18853,7 +18853,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -19293,7 +19293,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -20169,7 +20169,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -21172,7 +21172,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -22200,7 +22200,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -22362,7 +22362,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -22443,7 +22443,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -23041,7 +23041,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -23122,7 +23122,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -23370,7 +23370,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -23694,7 +23694,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -23856,7 +23856,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -23902,7 +23902,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -24018,7 +24018,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -24408,7 +24408,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -24489,7 +24489,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -24651,7 +24651,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -28026,7 +28026,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -28107,7 +28107,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -28609,7 +28609,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -28690,7 +28690,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -28852,7 +28852,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -29095,7 +29095,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -29176,7 +29176,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -29338,7 +29338,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -29419,7 +29419,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -29500,7 +29500,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -29662,7 +29662,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -29743,7 +29743,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -29824,7 +29824,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -29905,7 +29905,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -30067,7 +30067,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -30229,7 +30229,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -30310,7 +30310,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -30391,7 +30391,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -30553,7 +30553,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -30796,7 +30796,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -30958,7 +30958,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -31039,7 +31039,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -31155,7 +31155,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -31201,7 +31201,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -31236,7 +31236,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -31317,7 +31317,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -31363,7 +31363,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -31398,7 +31398,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -31444,7 +31444,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -31722,7 +31722,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -31884,7 +31884,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -32046,7 +32046,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -32208,7 +32208,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -32320,7 +32320,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -32401,7 +32401,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -32482,7 +32482,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -32517,7 +32517,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -32598,7 +32598,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -32841,7 +32841,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -32922,7 +32922,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -33003,7 +33003,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -33049,7 +33049,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -33084,7 +33084,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -33130,7 +33130,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -33165,7 +33165,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -33246,7 +33246,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -33358,7 +33358,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -34048,7 +34048,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 2</t>
+          <t>AL-ZUL-PEZ 4</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -34129,7 +34129,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 4</t>
+          <t>AL-ZUL-PEZ 1</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -34210,7 +34210,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 3</t>
+          <t>AL-ZUL-PEZ 5</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -34291,7 +34291,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 7</t>
+          <t>AL-ZUL-PEZ 3</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 5</t>
+          <t>AL-ZUL-PEZ 2</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -34453,7 +34453,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 6</t>
+          <t>AL-ZUL-PEZ 7</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -34534,7 +34534,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 1</t>
+          <t>AL-ZUL-PEZ 6</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -34615,7 +34615,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 7</t>
+          <t>AL-ZUL-PEZ 1</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -34696,7 +34696,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 1</t>
+          <t>AL-ZUL-PEZ 6</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -34858,7 +34858,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 6</t>
+          <t>AL-ZUL-PEZ 5</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -35020,7 +35020,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 5</t>
+          <t>AL-ZUL-PEZ 4</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -35101,7 +35101,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 4</t>
+          <t>AL-ZUL-PEZ 7</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -54033,12 +54033,7 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Brother HL-L6250DN</t>
-        </is>
-      </c>
-      <c r="P762" t="inlineStr">
-        <is>
-          <t>Brother HL-6250DN series</t>
+          <t>Unkown</t>
         </is>
       </c>
       <c r="Q762" t="n">
